--- a/Revised/table2.xlsx
+++ b/Revised/table2.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Millennial_CA\17_JTRG_multimodal\JTRG_Multimodal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Millennial_CA\17_JTRG_multimodal\JTRG_Multimodal\Revised\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="10005"/>
   </bookViews>
   <sheets>
     <sheet name="table2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -347,7 +347,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -841,7 +841,7 @@
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1170,7 +1170,7 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="C21" sqref="C21:Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Revised/table2.xlsx
+++ b/Revised/table2.xlsx
@@ -1170,7 +1170,7 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:Y21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
